--- a/docs/sample/tables/sample_array.xlsx
+++ b/docs/sample/tables/sample_array.xlsx
@@ -1,15 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4598A7BF-45D7-427C-BE5C-2ECD1E0014BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AAE58CB-4E62-4C63-93BE-2D0197386059}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="390" windowWidth="12750" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
-    <sheet name="Define" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -21,32 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>row1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -55,22 +34,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>colArr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>열방향 배열</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>rowArr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -78,14 +45,6 @@
     <t>structColArr</t>
   </si>
   <si>
-    <t>structColArr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -111,18 +70,6 @@
   </si>
   <si>
     <t>col0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>행방향 배열</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구조체 열방향 배열</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구조체 행방향 배열</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -168,7 +115,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -195,17 +142,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -292,26 +228,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -598,308 +532,189 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="10" style="9" customWidth="1"/>
-    <col min="6" max="6" width="10" style="5" customWidth="1"/>
-    <col min="8" max="8" width="9" style="9"/>
-    <col min="10" max="10" width="9" style="9"/>
-    <col min="12" max="12" width="9" style="9"/>
-    <col min="14" max="14" width="9" style="9"/>
+    <col min="5" max="5" width="10" style="7" customWidth="1"/>
+    <col min="6" max="6" width="10" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9" style="7"/>
+    <col min="10" max="10" width="9" style="7"/>
+    <col min="12" max="12" width="9" style="7"/>
+    <col min="14" max="14" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12"/>
-      <c r="B1" s="11"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="12" t="s">
+    <row r="1" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="9"/>
+      <c r="I1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="9"/>
+      <c r="K1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="9"/>
+      <c r="M1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="9"/>
+    </row>
+    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="11"/>
-      <c r="K1" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="11"/>
-      <c r="M1" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="11"/>
-    </row>
-    <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>17</v>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="6"/>
       <c r="C3" s="1">
         <v>10</v>
       </c>
       <c r="D3" s="1">
         <v>11</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="6">
         <v>12</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="4">
         <v>20</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="6">
+        <v>30</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="6">
+        <v>31</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="6">
+        <v>32</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="3">
+        <v>21</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="3">
         <v>22</v>
       </c>
-      <c r="H3" s="8">
-        <v>30</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="8">
-        <v>31</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="8">
-        <v>32</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" s="8">
-        <v>40</v>
-      </c>
+      <c r="H5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="N5" s="7"/>
     </row>
-    <row r="4" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="5">
-        <v>21</v>
-      </c>
-      <c r="H4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="N4" s="9">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="5">
-        <v>22</v>
-      </c>
-      <c r="H5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="N5" s="9"/>
-    </row>
-    <row r="6" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
+    <row r="6" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11">
         <v>2</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="5"/>
-      <c r="H6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="N6" s="9"/>
+      <c r="B6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="3"/>
+      <c r="H6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="N6" s="7"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>7</v>
+      <c r="B7" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="C7">
         <v>110</v>
       </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="9">
+      <c r="F7" s="16"/>
+      <c r="G7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="7">
         <v>130</v>
       </c>
-      <c r="M7" s="15"/>
+      <c r="M7" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.875" customWidth="1"/>
-    <col min="3" max="3" width="9" style="5"/>
-    <col min="4" max="4" width="18.625" style="2" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>